--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="215">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,10 +320,6 @@
   </si>
   <si>
     <t>主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -820,6 +816,71 @@
   </si>
   <si>
     <t>使用登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风扇平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.11 机电部
+刘杰、黄涛放入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8个风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.4日张禄禄、
+王欢放入一个主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShY_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.4日张禄禄、
+王欢放入一箱连接线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShY_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.4日张禄禄、
+王欢放入一箱显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.4日张禄禄、
+王欢放入一个A5探测器包装箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,6 +995,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:Z1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1255,7 +1323,7 @@
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
@@ -1265,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1280,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -1306,7 +1374,7 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1322,11 +1390,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1340,19 +1408,19 @@
         <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1368,11 +1436,11 @@
         <v>22</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1389,11 +1457,11 @@
         <v>24</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1410,11 +1478,11 @@
         <v>24</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1428,11 +1496,11 @@
         <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1446,11 +1514,11 @@
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1464,11 +1532,11 @@
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1482,11 +1550,11 @@
         <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1500,11 +1568,11 @@
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1518,11 +1586,11 @@
         <v>23</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1536,11 +1604,11 @@
         <v>33</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1554,11 +1622,11 @@
         <v>35</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1572,11 +1640,11 @@
         <v>22</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1590,11 +1658,11 @@
         <v>35</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1605,22 +1673,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" t="s">
         <v>198</v>
       </c>
-      <c r="F18" t="s">
-        <v>199</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -1629,19 +1697,19 @@
         <v>12</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1657,11 +1725,11 @@
         <v>7</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1675,11 +1743,11 @@
         <v>7</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1693,11 +1761,11 @@
         <v>7</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1711,11 +1779,11 @@
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1729,11 +1797,11 @@
         <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1747,11 +1815,11 @@
         <v>7</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1765,559 +1833,564 @@
         <v>7</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="10" t="s">
+    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="10">
+    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="21"/>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="21"/>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E37" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="21"/>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="1">
+      <c r="D38" s="13">
         <v>4</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="1">
-        <v>5</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="E38" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="10">
-        <v>2</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="1">
-        <v>6</v>
-      </c>
-      <c r="C37" s="14" t="s">
+    <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="21"/>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="13">
-        <v>4</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="1">
-        <v>7</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="1">
+    <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="21"/>
+      <c r="B40" s="1">
         <v>8</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="1">
-        <v>9</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D40" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="21"/>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="21"/>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="1">
-        <v>10</v>
-      </c>
-      <c r="C41" s="14" t="s">
+    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="21"/>
+      <c r="B43" s="1">
+        <v>11</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="10" t="s">
+      <c r="D43" s="13">
+        <v>2</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="1">
-        <v>11</v>
-      </c>
-      <c r="C42" s="14" t="s">
+    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="21"/>
+      <c r="B44" s="1">
+        <v>12</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="13">
-        <v>2</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="1">
-        <v>12</v>
-      </c>
-      <c r="C43" s="14" t="s">
+    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="1">
+        <v>13</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="1">
-        <v>13</v>
-      </c>
-      <c r="C44" s="14" t="s">
+    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="21"/>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="10" t="s">
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="1">
-        <v>14</v>
-      </c>
-      <c r="C45" s="14" t="s">
+    <row r="47" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="21"/>
+      <c r="B47" s="1">
+        <v>15</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="1">
-        <v>15</v>
-      </c>
-      <c r="C46" s="14" t="s">
+    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="21"/>
+      <c r="B48" s="1">
+        <v>16</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="1">
-        <v>16</v>
-      </c>
-      <c r="C47" s="14" t="s">
+    <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="1">
+        <v>17</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="1">
-        <v>17</v>
-      </c>
-      <c r="C48" s="14" t="s">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="10">
+        <v>18</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="10">
-        <v>18</v>
-      </c>
-      <c r="C49" s="15" t="s">
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="21"/>
+      <c r="B51" s="10">
+        <v>19</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" s="10" t="s">
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="10">
-        <v>19</v>
-      </c>
-      <c r="C50" s="14" t="s">
+    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="10">
+        <v>20</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="10">
-        <v>20</v>
-      </c>
-      <c r="C51" s="14" t="s">
+    <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="21"/>
+      <c r="B53" s="10">
+        <v>21</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G51" s="10" t="s">
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="10">
-        <v>21</v>
-      </c>
-      <c r="C52" s="14" t="s">
+    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="21"/>
+      <c r="B54" s="10">
+        <v>22</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="10" t="s">
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
-      <c r="B53" s="10">
-        <v>22</v>
-      </c>
-      <c r="C53" s="14" t="s">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="21"/>
+      <c r="B55" s="10">
+        <v>23</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G53" s="10" t="s">
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="10">
-        <v>23</v>
-      </c>
-      <c r="C54" s="11" t="s">
+    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="21"/>
+      <c r="B56" s="10">
+        <v>24</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="10" t="s">
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="18"/>
-      <c r="B55" s="10">
-        <v>24</v>
-      </c>
-      <c r="C55" s="14" t="s">
+    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="21"/>
+      <c r="B57" s="10">
+        <v>25</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G55" s="10" t="s">
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
-      <c r="B56" s="10">
-        <v>25</v>
-      </c>
-      <c r="C56" s="14" t="s">
+    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="10">
+        <v>26</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="10" t="s">
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
-      <c r="B57" s="10">
-        <v>26</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
-      <c r="B58" s="10">
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="21"/>
+      <c r="B59" s="10">
         <v>27</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
-      <c r="B59" s="10">
-        <v>28</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D59" s="10">
         <v>1</v>
@@ -2327,88 +2400,89 @@
       </c>
       <c r="F59"/>
       <c r="G59" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="18"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="21"/>
       <c r="B60" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F60"/>
       <c r="G60" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="18"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G61" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="10">
+        <v>30</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="21"/>
+      <c r="B63" s="10">
+        <v>31</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
-      <c r="B62" s="10">
-        <v>31</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="10">
-        <v>2</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="18"/>
-      <c r="B63" s="10">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="21"/>
+      <c r="B64" s="10">
         <v>32</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D63" s="10">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="18"/>
-      <c r="B64" s="10">
-        <v>33</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D64" s="10">
         <v>1</v>
@@ -2417,16 +2491,16 @@
         <v>6</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="18"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="21"/>
       <c r="B65" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -2435,16 +2509,16 @@
         <v>6</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="18"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="21"/>
       <c r="B66" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="10">
         <v>1</v>
@@ -2452,385 +2526,452 @@
       <c r="E66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="G66" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="21"/>
       <c r="B67" s="10">
+        <v>35</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="21"/>
+      <c r="B68" s="10">
         <v>36</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="10">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="10">
-        <v>37</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D68" s="10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="21"/>
       <c r="B69" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D69" s="10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="10">
+        <v>38</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
         <v>55</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="18" t="s">
+      <c r="G70" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>3</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="18"/>
-      <c r="B72" s="1">
-        <v>2</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="10">
-        <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F72" t="s">
+        <v>85</v>
+      </c>
       <c r="G72" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="21"/>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="10">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74" s="10" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="21"/>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="18"/>
-      <c r="B75" s="1">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="18"/>
-      <c r="B76" s="1">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="1">
         <v>3</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="18"/>
-      <c r="B77" s="1">
-        <v>4</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="D77" s="10">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G77" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="21"/>
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="8">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="21"/>
+      <c r="B79" s="1">
+        <v>5</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="10">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="18"/>
-      <c r="B78" s="1">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="10">
-        <v>2</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="1">
+      <c r="H79" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A80" s="21"/>
+      <c r="B80" s="1">
         <v>6</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D79" s="10">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="1">
-        <v>7</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D80" s="10">
         <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="21"/>
+      <c r="B81" s="1">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="10">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="21"/>
+      <c r="B82" s="1">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="D82" s="10">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="1">
-        <v>8</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="10">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="21"/>
+      <c r="B83" s="1">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="D83" s="10">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="18"/>
-      <c r="B82" s="1">
-        <v>9</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="10">
-        <v>2</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" t="s">
+    <row r="84" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="21"/>
+      <c r="B84" s="4">
+        <v>10</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="D84" s="10">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="18"/>
-      <c r="B83" s="4">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="10">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G83" s="10" t="s">
+    <row r="85" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A85" s="21"/>
+      <c r="B85" s="18">
+        <v>11</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="18">
+        <v>1</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="21"/>
+      <c r="B86" s="18">
+        <v>12</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="18">
+        <v>1</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="10">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="10">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="10" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="21"/>
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="10">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="18"/>
-      <c r="B86" s="1">
-        <v>3</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="10">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="A33:A70"/>
     <mergeCell ref="H1:Z1"/>
-    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
     <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A74:A83"/>
-    <mergeCell ref="A32:A69"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="219">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,22 @@
   <si>
     <t>2018.12.4日张禄禄、
 王欢放入一个A5探测器包装箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺栓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhZ_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.13 17:55 事业部牛齐昌取出10片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,14 +1010,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1350,31 +1370,31 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1394,7 +1414,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1412,15 +1432,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1440,7 +1460,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1461,7 +1481,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1482,7 +1502,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1500,7 +1520,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1518,7 +1538,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1536,7 +1556,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1554,7 +1574,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1572,7 +1592,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1590,7 +1610,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1608,7 +1628,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1626,7 +1646,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1644,7 +1664,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1662,7 +1682,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1683,7 +1703,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1701,15 +1721,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1729,7 +1749,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1747,7 +1767,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1765,7 +1785,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1783,7 +1803,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1801,7 +1821,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1819,7 +1839,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1837,11 +1857,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>200</v>
       </c>
       <c r="D28" s="18">
@@ -1850,7 +1870,7 @@
       <c r="E28" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>204</v>
       </c>
       <c r="G28" s="18" t="s">
@@ -1861,15 +1881,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1">
@@ -1889,7 +1909,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -1906,59 +1926,62 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
+    <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="23"/>
+      <c r="B32" s="20">
+        <v>3</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>2</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="23"/>
       <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>169</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -1967,16 +1990,16 @@
         <v>174</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="23"/>
       <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>172</v>
+        <v>3</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -1985,106 +2008,106 @@
         <v>174</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="13">
-        <v>4</v>
+        <v>173</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D40" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -2093,52 +2116,52 @@
         <v>174</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45" s="13">
         <v>1</v>
@@ -2147,16 +2170,16 @@
         <v>174</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -2165,16 +2188,16 @@
         <v>174</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -2183,16 +2206,16 @@
         <v>174</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
@@ -2201,16 +2224,16 @@
         <v>174</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
@@ -2219,16 +2242,16 @@
         <v>174</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="10">
-        <v>18</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>187</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="23"/>
+      <c r="B50" s="1">
+        <v>17</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -2237,16 +2260,16 @@
         <v>174</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="23"/>
       <c r="B51" s="10">
-        <v>19</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>188</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
@@ -2255,16 +2278,16 @@
         <v>174</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -2273,16 +2296,16 @@
         <v>174</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53" s="13">
         <v>1</v>
@@ -2291,16 +2314,16 @@
         <v>174</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -2309,16 +2332,16 @@
         <v>174</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="23"/>
       <c r="B55" s="10">
-        <v>23</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>192</v>
+        <v>22</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
@@ -2327,16 +2350,16 @@
         <v>174</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="23"/>
       <c r="B56" s="10">
-        <v>24</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>193</v>
+        <v>23</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -2345,16 +2368,16 @@
         <v>174</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
@@ -2363,16 +2386,16 @@
         <v>174</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
@@ -2381,35 +2404,34 @@
         <v>174</v>
       </c>
       <c r="G58" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="23"/>
+      <c r="B59" s="10">
+        <v>26</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="10">
+    <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="23"/>
+      <c r="B60" s="10">
         <v>27</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="10">
-        <v>28</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D60" s="10">
         <v>1</v>
@@ -2419,88 +2441,89 @@
       </c>
       <c r="F60"/>
       <c r="G60" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="21"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="23"/>
       <c r="B61" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D61" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F61"/>
       <c r="G61" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="21"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="23"/>
+      <c r="B63" s="10">
+        <v>30</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
-      <c r="B63" s="10">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="23"/>
+      <c r="B64" s="10">
         <v>31</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>2</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G64" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
-      <c r="B64" s="10">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="23"/>
+      <c r="B65" s="10">
         <v>32</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D64" s="10">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="10">
-        <v>33</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -2509,16 +2532,16 @@
         <v>6</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D66" s="10">
         <v>1</v>
@@ -2527,16 +2550,16 @@
         <v>6</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="23"/>
       <c r="B67" s="10">
-        <v>35</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D67" s="10">
         <v>1</v>
@@ -2544,434 +2567,452 @@
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="G67" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="23"/>
+      <c r="B68" s="10">
+        <v>35</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
-      <c r="B68" s="10">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="23"/>
+      <c r="B69" s="10">
         <v>36</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
-      <c r="B69" s="10">
-        <v>37</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D69" s="10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70" s="10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="23"/>
+      <c r="B71" s="10">
+        <v>38</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" t="s">
         <v>55</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-    </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="1">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>3</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="1">
-        <v>2</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="10">
-        <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F73" t="s">
+        <v>85</v>
+      </c>
       <c r="G73" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="23"/>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-    </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G76" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="21"/>
-      <c r="B76" s="1">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="23"/>
+      <c r="B77" s="1">
         <v>2</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>71</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G77" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="1">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="23"/>
+      <c r="B78" s="1">
         <v>3</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="10">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
-      <c r="B78" s="1">
-        <v>4</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="8">
+      <c r="D78" s="10">
         <v>1</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G78" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="23"/>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="1">
+    <row r="80" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="23"/>
+      <c r="B80" s="1">
         <v>5</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>3</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G80" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H80" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
-      <c r="B80" s="1">
+    <row r="81" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" s="23"/>
+      <c r="B81" s="1">
         <v>6</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="D80" s="10">
-        <v>2</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
-      <c r="B81" s="1">
-        <v>7</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D81" s="10">
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="23"/>
+      <c r="B82" s="1">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="10">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G82" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
-      <c r="B82" s="1">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="23"/>
+      <c r="B83" s="1">
         <v>8</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="10">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="D83" s="10">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>81</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G83" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" s="21"/>
-      <c r="B83" s="1">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="23"/>
+      <c r="B84" s="1">
         <v>9</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>2</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>83</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G84" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="21"/>
-      <c r="B84" s="4">
+    <row r="85" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="23"/>
+      <c r="B85" s="4">
         <v>10</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="D85" s="10">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="10" t="s">
+      <c r="F85" s="5"/>
+      <c r="G85" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="21"/>
-      <c r="B85" s="18">
+    <row r="86" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="23"/>
+      <c r="B86" s="18">
         <v>11</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="18">
-        <v>1</v>
-      </c>
-      <c r="E85" s="18" t="s">
+      <c r="D86" s="18">
+        <v>1</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G86" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H86" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="21"/>
-      <c r="B86" s="18">
+    <row r="87" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A87" s="23"/>
+      <c r="B87" s="18">
         <v>12</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="18">
-        <v>1</v>
-      </c>
-      <c r="E86" s="18" t="s">
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G87" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H87" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-    </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="1">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>6</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G89" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" s="21"/>
-      <c r="B89" s="1">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="23"/>
+      <c r="B90" s="1">
         <v>3</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D89" s="10">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="D90" s="10">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A33:A70"/>
     <mergeCell ref="H1:Z1"/>
-    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="A34:A71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="220">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,6 +897,11 @@
   </si>
   <si>
     <t>2018.12.13 17:55 事业部牛齐昌取出10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-17 14:29 机电部
+王彦辉取出导轨（15cm）一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,12 +1022,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1348,7 @@
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
@@ -1370,31 +1375,31 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1414,7 +1419,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1432,15 +1437,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1460,7 +1465,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1480,8 +1485,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1500,9 +1505,12 @@
       <c r="G7" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1520,7 +1528,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1538,7 +1546,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1556,7 +1564,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1574,7 +1582,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1592,7 +1600,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1610,7 +1618,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1628,7 +1636,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1646,7 +1654,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1664,7 +1672,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1682,7 +1690,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1703,7 +1711,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1721,15 +1729,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1749,7 +1757,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1767,7 +1775,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1785,7 +1793,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1803,7 +1811,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1821,7 +1829,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1839,7 +1847,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1857,7 +1865,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
@@ -1881,15 +1889,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1">
@@ -1909,7 +1917,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -1927,7 +1935,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="20">
         <v>3</v>
       </c>
@@ -1948,15 +1956,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="1">
@@ -1976,7 +1984,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1994,7 +2002,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -2012,7 +2020,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="1">
         <v>4</v>
       </c>
@@ -2030,7 +2038,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="1">
         <v>5</v>
       </c>
@@ -2048,7 +2056,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="1">
         <v>6</v>
       </c>
@@ -2066,7 +2074,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="1">
         <v>7</v>
       </c>
@@ -2084,7 +2092,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="1">
         <v>8</v>
       </c>
@@ -2102,7 +2110,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="1">
         <v>9</v>
       </c>
@@ -2120,7 +2128,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="1">
         <v>10</v>
       </c>
@@ -2138,7 +2146,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="1">
         <v>11</v>
       </c>
@@ -2156,7 +2164,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="1">
         <v>12</v>
       </c>
@@ -2174,7 +2182,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="1">
         <v>13</v>
       </c>
@@ -2192,7 +2200,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="1">
         <v>14</v>
       </c>
@@ -2210,7 +2218,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="1">
         <v>15</v>
       </c>
@@ -2228,7 +2236,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="1">
         <v>16</v>
       </c>
@@ -2246,7 +2254,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="1">
         <v>17</v>
       </c>
@@ -2264,7 +2272,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="10">
         <v>18</v>
       </c>
@@ -2282,7 +2290,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10">
         <v>19</v>
       </c>
@@ -2300,7 +2308,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="10">
         <v>20</v>
       </c>
@@ -2318,7 +2326,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="10">
         <v>21</v>
       </c>
@@ -2336,7 +2344,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10">
         <v>22</v>
       </c>
@@ -2354,7 +2362,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="10">
         <v>23</v>
       </c>
@@ -2372,7 +2380,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="10">
         <v>24</v>
       </c>
@@ -2390,7 +2398,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="10">
         <v>25</v>
       </c>
@@ -2408,7 +2416,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="10">
         <v>26</v>
       </c>
@@ -2426,7 +2434,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="10">
         <v>27</v>
       </c>
@@ -2445,7 +2453,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="10">
         <v>28</v>
       </c>
@@ -2464,7 +2472,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="10">
         <v>29</v>
       </c>
@@ -2482,7 +2490,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>30</v>
       </c>
@@ -2500,7 +2508,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="10">
         <v>31</v>
       </c>
@@ -2518,7 +2526,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="10">
         <v>32</v>
       </c>
@@ -2536,7 +2544,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="10">
         <v>33</v>
       </c>
@@ -2554,7 +2562,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="10">
         <v>34</v>
       </c>
@@ -2572,7 +2580,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>35</v>
       </c>
@@ -2593,7 +2601,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="10">
         <v>36</v>
       </c>
@@ -2611,7 +2619,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="10">
         <v>37</v>
       </c>
@@ -2629,7 +2637,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="10">
         <v>38</v>
       </c>
@@ -2650,15 +2658,15 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B73" s="1">
@@ -2681,7 +2689,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="1">
         <v>2</v>
       </c>
@@ -2699,15 +2707,15 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B76" s="1">
@@ -2730,7 +2738,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="1">
         <v>2</v>
       </c>
@@ -2751,7 +2759,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="23"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="1">
         <v>3</v>
       </c>
@@ -2769,7 +2777,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="23"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="1">
         <v>4</v>
       </c>
@@ -2787,7 +2795,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="23"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="1">
         <v>5</v>
       </c>
@@ -2808,7 +2816,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="23"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="1">
         <v>6</v>
       </c>
@@ -2829,7 +2837,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" s="23"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="1">
         <v>7</v>
       </c>
@@ -2847,7 +2855,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="1">
         <v>8</v>
       </c>
@@ -2868,7 +2876,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="1">
         <v>9</v>
       </c>
@@ -2889,7 +2897,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="23"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="4">
         <v>10</v>
       </c>
@@ -2908,7 +2916,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="23"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="18">
         <v>11</v>
       </c>
@@ -2929,7 +2937,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="18">
         <v>12</v>
       </c>
@@ -2950,15 +2958,15 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="1">
@@ -2978,7 +2986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="1">
         <v>3</v>
       </c>
@@ -2997,6 +3005,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="A34:A71"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A75:F75"/>
     <mergeCell ref="A2:A3"/>
@@ -3006,13 +3021,6 @@
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="A34:A71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="221">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -902,6 +902,11 @@
   <si>
     <t>2018-12-17 14:29 机电部
 王彦辉取出导轨（15cm）一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-18 11:55 机电部
+王运法取出6个M4*10螺钉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,12 +1027,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,27 +1383,27 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
@@ -2636,12 +2644,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="24"/>
       <c r="B71" s="10">
         <v>38</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D71" s="10">
@@ -2650,11 +2658,14 @@
       <c r="E71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>166</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -3005,13 +3016,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="A34:A71"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A75:F75"/>
     <mergeCell ref="A2:A3"/>
@@ -3021,6 +3025,13 @@
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="A34:A71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="222">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -907,6 +907,11 @@
   <si>
     <t>2018-12-18 11:55 机电部
 王运法取出6个M4*10螺钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-18 14:54 机电部
+史晓星取出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,15 +1032,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1383,27 +1385,27 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
@@ -2608,22 +2610,25 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="24"/>
       <c r="B69" s="10">
         <v>36</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D69" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>164</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2649,7 +2654,7 @@
       <c r="B71" s="10">
         <v>38</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D71" s="10">
@@ -3016,6 +3021,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="A34:A71"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A75:F75"/>
     <mergeCell ref="A2:A3"/>
@@ -3025,13 +3037,6 @@
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="A34:A71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="224">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -912,6 +912,16 @@
   <si>
     <t>2018-12-18 14:54 机电部
 史晓星取出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-19 17:31 事业部
+牛齐昌取出一箱连接线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-20 10:50 机电部
+史晓星取出一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1359,7 +1369,7 @@
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="10" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="23.875" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1500,7 +1510,7 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10">
@@ -1519,12 +1529,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="10">
@@ -1535,6 +1545,9 @@
       </c>
       <c r="G8" s="10" t="s">
         <v>92</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
@@ -2831,7 +2844,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="24"/>
       <c r="B81" s="1">
         <v>6</v>
@@ -2852,7 +2865,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="24"/>
       <c r="B82" s="1">
         <v>7</v>
@@ -2870,7 +2883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="24"/>
       <c r="B83" s="1">
         <v>8</v>
@@ -2891,7 +2904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="24"/>
       <c r="B84" s="1">
         <v>9</v>
@@ -2912,7 +2925,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="24"/>
       <c r="B85" s="4">
         <v>10</v>
@@ -2931,7 +2944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="24"/>
       <c r="B86" s="18">
         <v>11</v>
@@ -2952,7 +2965,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="24"/>
       <c r="B87" s="18">
         <v>12</v>
@@ -2961,7 +2974,7 @@
         <v>206</v>
       </c>
       <c r="D87" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>207</v>
@@ -2972,8 +2985,11 @@
       <c r="H87" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I87" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -2981,7 +2997,7 @@
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="24" t="s">
         <v>67</v>
       </c>
@@ -3001,7 +3017,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="24"/>
       <c r="B90" s="1">
         <v>3</v>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="228">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,6 +922,22 @@
   <si>
     <t>2018-12-20 10:50 机电部
 史晓星取出一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhZ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-20 13:10 机电部史晓星、刘杰放入4块铅板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,12 +1058,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA90"/>
+  <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,31 +1415,31 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1439,7 +1459,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1457,15 +1477,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1485,7 +1505,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1506,7 +1526,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1530,7 +1550,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1551,7 +1571,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1569,7 +1589,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1587,7 +1607,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1605,7 +1625,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1623,7 +1643,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1641,7 +1661,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1659,7 +1679,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1677,7 +1697,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1695,7 +1715,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1713,7 +1733,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1734,7 +1754,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1752,15 +1772,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1780,7 +1800,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1798,7 +1818,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1816,7 +1836,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1834,7 +1854,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1852,7 +1872,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1870,7 +1890,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1888,7 +1908,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
@@ -1912,15 +1932,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1">
@@ -1940,7 +1960,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -1958,7 +1978,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="20">
         <v>3</v>
       </c>
@@ -1978,59 +1998,62 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="24" t="s">
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="25"/>
+      <c r="B33" s="23">
+        <v>4</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="23">
+        <v>4</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>2</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="25"/>
       <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>169</v>
+        <v>2</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -2039,16 +2062,16 @@
         <v>174</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="25"/>
       <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>172</v>
+        <v>3</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -2057,106 +2080,106 @@
         <v>174</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
       <c r="B38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="25"/>
       <c r="B39" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="13">
-        <v>4</v>
+        <v>173</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="25"/>
       <c r="B40" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="25"/>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D41" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="25"/>
       <c r="B42" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D42" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="25"/>
       <c r="B43" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
@@ -2165,52 +2188,52 @@
         <v>174</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="25"/>
       <c r="B44" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="25"/>
       <c r="B45" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D45" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="25"/>
       <c r="B46" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -2219,16 +2242,16 @@
         <v>174</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="25"/>
       <c r="B47" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -2237,16 +2260,16 @@
         <v>174</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="25"/>
       <c r="B48" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
@@ -2255,16 +2278,16 @@
         <v>174</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
@@ -2273,16 +2296,16 @@
         <v>174</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -2291,16 +2314,16 @@
         <v>174</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="B51" s="10">
-        <v>18</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>187</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="25"/>
+      <c r="B51" s="1">
+        <v>17</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
@@ -2309,16 +2332,16 @@
         <v>174</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="25"/>
       <c r="B52" s="10">
-        <v>19</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>188</v>
+        <v>18</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -2327,16 +2350,16 @@
         <v>174</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="24"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D53" s="13">
         <v>1</v>
@@ -2345,16 +2368,16 @@
         <v>174</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="24"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -2363,16 +2386,16 @@
         <v>174</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="24"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
@@ -2381,16 +2404,16 @@
         <v>174</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A56" s="24"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="25"/>
       <c r="B56" s="10">
-        <v>23</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>192</v>
+        <v>22</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -2399,16 +2422,16 @@
         <v>174</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="24"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="25"/>
       <c r="B57" s="10">
-        <v>24</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>193</v>
+        <v>23</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
@@ -2417,16 +2440,16 @@
         <v>174</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="24"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
@@ -2435,16 +2458,16 @@
         <v>174</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="24"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
@@ -2453,35 +2476,34 @@
         <v>174</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="25"/>
+      <c r="B60" s="10">
+        <v>26</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="24"/>
-      <c r="B60" s="10">
+    <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="25"/>
+      <c r="B61" s="10">
         <v>27</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D60" s="10">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60"/>
-      <c r="G60" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="10">
-        <v>28</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D61" s="10">
         <v>1</v>
@@ -2491,88 +2513,89 @@
       </c>
       <c r="F61"/>
       <c r="G61" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="24"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="25"/>
       <c r="B62" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F62"/>
       <c r="G62" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="24"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="25"/>
+      <c r="B64" s="10">
+        <v>30</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="24"/>
-      <c r="B64" s="10">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="25"/>
+      <c r="B65" s="10">
         <v>31</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G65" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="24"/>
-      <c r="B65" s="10">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="25"/>
+      <c r="B66" s="10">
         <v>32</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D65" s="10">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="24"/>
-      <c r="B66" s="10">
-        <v>33</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D66" s="10">
         <v>1</v>
@@ -2581,16 +2604,16 @@
         <v>6</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="24"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="10">
         <v>1</v>
@@ -2599,16 +2622,16 @@
         <v>6</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="24"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="25"/>
       <c r="B68" s="10">
-        <v>35</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D68" s="10">
         <v>1</v>
@@ -2616,443 +2639,461 @@
       <c r="E68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="25"/>
+      <c r="B69" s="10">
+        <v>35</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G69" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="24"/>
-      <c r="B69" s="10">
+    <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="25"/>
+      <c r="B70" s="10">
         <v>36</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="24"/>
-      <c r="B70" s="10">
-        <v>37</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="10">
-        <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="24"/>
+        <v>164</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="25"/>
       <c r="B71" s="10">
-        <v>38</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D71" s="10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="G71" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="25"/>
+      <c r="B72" s="10">
+        <v>38</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G72" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H72" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-    </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="1">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>3</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="24"/>
-      <c r="B74" s="1">
-        <v>2</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="10">
-        <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F74" t="s">
+        <v>85</v>
+      </c>
       <c r="G74" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="25"/>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-    </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G77" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="24"/>
-      <c r="B77" s="1">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="25"/>
+      <c r="B78" s="1">
         <v>2</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="10">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>71</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G78" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="24"/>
-      <c r="B78" s="1">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="25"/>
+      <c r="B79" s="1">
         <v>3</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="10">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="24"/>
-      <c r="B79" s="1">
-        <v>4</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="D79" s="10">
         <v>1</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G79" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="25"/>
+      <c r="B80" s="1">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="24"/>
-      <c r="B80" s="1">
+    <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="25"/>
+      <c r="B81" s="1">
         <v>5</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C81" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>3</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G81" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H81" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="24"/>
-      <c r="B81" s="1">
+    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="25"/>
+      <c r="B82" s="1">
         <v>6</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="D81" s="10">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="24"/>
-      <c r="B82" s="1">
-        <v>7</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D82" s="10">
         <v>2</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="25"/>
+      <c r="B83" s="1">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="10">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G83" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="24"/>
-      <c r="B83" s="1">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="25"/>
+      <c r="B84" s="1">
         <v>8</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="10">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="D84" s="10">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G84" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="24"/>
-      <c r="B84" s="1">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="25"/>
+      <c r="B85" s="1">
         <v>9</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>2</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>83</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="24"/>
-      <c r="B85" s="4">
+    <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="25"/>
+      <c r="B86" s="4">
         <v>10</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="10">
-        <v>1</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="10" t="s">
+      <c r="F86" s="5"/>
+      <c r="G86" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="24"/>
-      <c r="B86" s="18">
+    <row r="87" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A87" s="25"/>
+      <c r="B87" s="18">
         <v>11</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C87" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="18">
-        <v>1</v>
-      </c>
-      <c r="E86" s="18" t="s">
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G87" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H87" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="24"/>
-      <c r="B87" s="18">
+    <row r="88" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A88" s="25"/>
+      <c r="B88" s="18">
         <v>12</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C88" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="18">
         <v>0</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E88" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G88" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H88" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I88" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-    </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="1">
-        <v>1</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>6</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="24"/>
-      <c r="B90" s="1">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="25"/>
+      <c r="B91" s="1">
         <v>3</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D90" s="10">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="D91" s="10">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="A34:A71"/>
     <mergeCell ref="H1:Z1"/>
-    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:F76"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A35:A72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="229">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,6 +938,11 @@
   </si>
   <si>
     <t>2018-12-20 13:10 机电部史晓星、刘杰放入4块铅板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-25 售后服务部
+祁迎春取出一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,12 +1067,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1415,31 +1420,31 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1459,7 +1464,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1477,15 +1482,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1505,7 +1510,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1526,7 +1531,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1550,7 +1555,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1571,7 +1576,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1589,7 +1594,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1607,7 +1612,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1625,7 +1630,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1643,7 +1648,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1661,7 +1666,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1679,7 +1684,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1697,7 +1702,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1715,7 +1720,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1733,7 +1738,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1754,7 +1759,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1772,15 +1777,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1800,7 +1805,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1818,7 +1823,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1836,7 +1841,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1854,7 +1859,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1872,7 +1877,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1890,7 +1895,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1908,7 +1913,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
@@ -1932,15 +1937,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1">
@@ -1960,7 +1965,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -1978,7 +1983,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="20">
         <v>3</v>
       </c>
@@ -1999,7 +2004,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="23">
         <v>4</v>
       </c>
@@ -2020,15 +2025,15 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="1">
@@ -2048,7 +2053,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="1">
         <v>2</v>
       </c>
@@ -2066,7 +2071,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -2084,7 +2089,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="1">
         <v>4</v>
       </c>
@@ -2102,7 +2107,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="1">
         <v>5</v>
       </c>
@@ -2120,7 +2125,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -2138,7 +2143,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="1">
         <v>7</v>
       </c>
@@ -2156,7 +2161,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="25"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="1">
         <v>8</v>
       </c>
@@ -2174,7 +2179,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="1">
         <v>9</v>
       </c>
@@ -2192,7 +2197,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="1">
         <v>10</v>
       </c>
@@ -2210,7 +2215,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="25"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -2228,7 +2233,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -2246,7 +2251,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="1">
         <v>13</v>
       </c>
@@ -2264,7 +2269,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="25"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="1">
         <v>14</v>
       </c>
@@ -2282,7 +2287,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="25"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="1">
         <v>15</v>
       </c>
@@ -2300,7 +2305,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="25"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="1">
         <v>16</v>
       </c>
@@ -2318,7 +2323,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="1">
         <v>17</v>
       </c>
@@ -2336,7 +2341,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="25"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="10">
         <v>18</v>
       </c>
@@ -2354,7 +2359,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="25"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="10">
         <v>19</v>
       </c>
@@ -2372,7 +2377,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="25"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="10">
         <v>20</v>
       </c>
@@ -2390,7 +2395,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="25"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="10">
         <v>21</v>
       </c>
@@ -2408,7 +2413,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="25"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="10">
         <v>22</v>
       </c>
@@ -2426,7 +2431,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="25"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="10">
         <v>23</v>
       </c>
@@ -2444,7 +2449,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="25"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="10">
         <v>24</v>
       </c>
@@ -2462,7 +2467,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="25"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="10">
         <v>25</v>
       </c>
@@ -2480,7 +2485,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="25"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="10">
         <v>26</v>
       </c>
@@ -2498,7 +2503,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="25"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="10">
         <v>27</v>
       </c>
@@ -2517,7 +2522,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="25"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="10">
         <v>28</v>
       </c>
@@ -2536,7 +2541,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="25"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="10">
         <v>29</v>
       </c>
@@ -2554,7 +2559,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="25"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="10">
         <v>30</v>
       </c>
@@ -2572,7 +2577,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="25"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="10">
         <v>31</v>
       </c>
@@ -2590,7 +2595,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="25"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="10">
         <v>32</v>
       </c>
@@ -2608,7 +2613,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="25"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="10">
         <v>33</v>
       </c>
@@ -2626,7 +2631,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="25"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="10">
         <v>34</v>
       </c>
@@ -2644,7 +2649,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="25"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="10">
         <v>35</v>
       </c>
@@ -2665,7 +2670,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="25"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="10">
         <v>36</v>
       </c>
@@ -2685,16 +2690,16 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="25"/>
+    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="26"/>
       <c r="B71" s="10">
         <v>37</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D71" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>52</v>
@@ -2702,9 +2707,12 @@
       <c r="G71" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="H71" s="8" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="25"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="10">
         <v>38</v>
       </c>
@@ -2728,15 +2736,15 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B74" s="1">
@@ -2759,7 +2767,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="25"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="1">
         <v>2</v>
       </c>
@@ -2777,15 +2785,15 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B77" s="1">
@@ -2808,7 +2816,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="25"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -2829,7 +2837,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="25"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="1">
         <v>3</v>
       </c>
@@ -2847,7 +2855,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="25"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="1">
         <v>4</v>
       </c>
@@ -2865,7 +2873,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="25"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="1">
         <v>5</v>
       </c>
@@ -2886,7 +2894,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A82" s="25"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="1">
         <v>6</v>
       </c>
@@ -2907,7 +2915,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="25"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="1">
         <v>7</v>
       </c>
@@ -2925,7 +2933,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="25"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="1">
         <v>8</v>
       </c>
@@ -2946,7 +2954,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="25"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="1">
         <v>9</v>
       </c>
@@ -2967,7 +2975,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="25"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="4">
         <v>10</v>
       </c>
@@ -2986,7 +2994,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="25"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="18">
         <v>11</v>
       </c>
@@ -3007,7 +3015,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="25"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="18">
         <v>12</v>
       </c>
@@ -3031,15 +3039,15 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="1">
@@ -3059,7 +3067,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="25"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="1">
         <v>3</v>
       </c>
@@ -3078,6 +3086,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A35:A72"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A2:A3"/>
@@ -3087,13 +3102,6 @@
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A35:A72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="231">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,10 +232,6 @@
   </si>
   <si>
     <t>工作台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全是螺栓之类物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -943,6 +939,20 @@
   <si>
     <t>2018-12-25 售后服务部
 祁迎春取出一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-26 11:00 售后
+服务部祁迎春取出两个，
+发往工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色梯形铅板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全是螺栓、螺母之类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,12 +1077,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1418,33 +1428,33 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1460,11 +1470,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1478,19 +1488,19 @@
         <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1506,11 +1516,11 @@
         <v>22</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1527,11 +1537,11 @@
         <v>24</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1548,14 +1558,14 @@
         <v>24</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1569,14 +1579,14 @@
         <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1590,11 +1600,11 @@
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1608,11 +1618,11 @@
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1626,11 +1636,11 @@
         <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1644,11 +1654,11 @@
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1662,29 +1672,32 @@
         <v>23</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1698,11 +1711,11 @@
         <v>35</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1716,11 +1729,11 @@
         <v>22</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1734,37 +1747,37 @@
         <v>35</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="10">
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" t="s">
         <v>197</v>
       </c>
-      <c r="F18" t="s">
-        <v>198</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -1773,19 +1786,19 @@
         <v>12</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1801,11 +1814,11 @@
         <v>7</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1819,11 +1832,11 @@
         <v>7</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1837,11 +1850,11 @@
         <v>7</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1855,11 +1868,11 @@
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1873,11 +1886,11 @@
         <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1891,11 +1904,11 @@
         <v>7</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1909,50 +1922,50 @@
         <v>7</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
       <c r="C28" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="18">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="H28" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -1961,549 +1974,552 @@
         <v>52</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="20">
         <v>3</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="H32" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="23">
         <v>4</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="23">
         <v>4</v>
       </c>
       <c r="E33" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="H33" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="26" t="s">
-        <v>61</v>
+      <c r="A35" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="13">
         <v>2</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="26"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="1">
         <v>4</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="1">
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" s="10">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="26"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="1">
         <v>6</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D40" s="13">
         <v>4</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="26"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="1">
         <v>7</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="26"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="1">
         <v>8</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42" s="13">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="1">
         <v>9</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="26"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="1">
         <v>10</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D44" s="13">
         <v>1</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="26"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="1">
         <v>11</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45" s="13">
         <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="26"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="1">
         <v>12</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="26"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="1">
         <v>13</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="26"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="1">
         <v>14</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="26"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="1">
         <v>15</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="26"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="1">
         <v>16</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="26"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="1">
         <v>17</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="26"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="10">
         <v>18</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="26"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="10">
         <v>19</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="13">
         <v>1</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="26"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="10">
         <v>20</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="26"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="10">
         <v>21</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="26"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="10">
         <v>22</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="26"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="10">
         <v>23</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="26"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="10">
         <v>24</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="26"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="10">
         <v>25</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="26"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="10">
         <v>26</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="26"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="10">
         <v>27</v>
       </c>
@@ -2518,11 +2534,11 @@
       </c>
       <c r="F61"/>
       <c r="G61" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="26"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="10">
         <v>28</v>
       </c>
@@ -2537,11 +2553,11 @@
       </c>
       <c r="F62"/>
       <c r="G62" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="26"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="10">
         <v>29</v>
       </c>
@@ -2555,11 +2571,11 @@
         <v>41</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="26"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="10">
         <v>30</v>
       </c>
@@ -2573,11 +2589,11 @@
         <v>41</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="26"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="10">
         <v>31</v>
       </c>
@@ -2591,11 +2607,11 @@
         <v>46</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="26"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="10">
         <v>32</v>
       </c>
@@ -2609,11 +2625,11 @@
         <v>6</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="26"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="10">
         <v>33</v>
       </c>
@@ -2627,11 +2643,11 @@
         <v>6</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="26"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="10">
         <v>34</v>
       </c>
@@ -2645,11 +2661,11 @@
         <v>6</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="26"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="10">
         <v>35</v>
       </c>
@@ -2663,14 +2679,14 @@
         <v>6</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="26"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="10">
         <v>36</v>
       </c>
@@ -2684,14 +2700,14 @@
         <v>52</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="26"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="10">
         <v>37</v>
       </c>
@@ -2705,14 +2721,14 @@
         <v>52</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="26"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="10">
         <v>38</v>
       </c>
@@ -2726,32 +2742,32 @@
         <v>52</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="26" t="s">
-        <v>60</v>
+      <c r="A74" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D74" s="10">
         <v>3</v>
@@ -2760,19 +2776,19 @@
         <v>52</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="26"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="1">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D75" s="10">
         <v>1</v>
@@ -2781,26 +2797,26 @@
         <v>52</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="26" t="s">
-        <v>69</v>
+      <c r="A77" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -2809,19 +2825,19 @@
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="26"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="10">
         <v>1</v>
@@ -2830,19 +2846,19 @@
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="26"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="1">
         <v>3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="10">
         <v>1</v>
@@ -2851,16 +2867,16 @@
         <v>6</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="26"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="1">
         <v>4</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
@@ -2869,192 +2885,192 @@
         <v>6</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="26"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="1">
         <v>5</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="10">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A82" s="26"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="1">
         <v>6</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="10">
         <v>2</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="26"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="1">
         <v>7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" s="10">
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="26"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="1">
         <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="10">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" t="s">
         <v>80</v>
       </c>
-      <c r="F84" t="s">
-        <v>81</v>
-      </c>
       <c r="G84" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="26"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="1">
         <v>9</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="10">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="26"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="4">
         <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="10">
         <v>1</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="26"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="18">
         <v>11</v>
       </c>
       <c r="C87" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D87" s="18">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18" t="s">
+      <c r="G87" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="H87" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="26"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="18">
         <v>12</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D88" s="18">
         <v>0</v>
       </c>
       <c r="E88" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="H88" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="I88" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="26" t="s">
-        <v>67</v>
+      <c r="A90" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D90" s="10">
         <v>6</v>
@@ -3063,36 +3079,29 @@
         <v>23</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="26"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="1">
         <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="10">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A35:A72"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A2:A3"/>
@@ -3102,6 +3111,13 @@
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A35:A72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="241">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +953,49 @@
   </si>
   <si>
     <t>全是螺栓、螺母之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄铅板，屏蔽用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-29 11:45 机电部
+刘杰放入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-29 11:45 机电部
+刘杰放入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-29 11:45 机电部
+刘杰放入1个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,6 +1126,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1454,7 +1501,7 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1474,7 +1521,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1491,38 +1538,44 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+    <row r="4" spans="1:27" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1531,22 +1584,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -1558,40 +1608,40 @@
         <v>24</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="1">
+    <row r="9" spans="1:27" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1600,34 +1650,37 @@
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="1">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -1636,194 +1689,194 @@
         <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="1">
+    <row r="15" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="1">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="1">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="7">
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="7">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-    </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
@@ -1832,16 +1885,16 @@
         <v>7</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -1850,70 +1903,73 @@
         <v>7</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
       <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="D24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="1">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
-      <c r="B26" s="1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="1">
         <v>6</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
-      <c r="B27" s="1">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
@@ -1922,195 +1978,199 @@
         <v>7</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18">
+    <row r="29" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="18">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="s">
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G29" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:8" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="28"/>
+      <c r="B30" s="25">
+        <v>9</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="25">
+        <v>1</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
-      <c r="B31" s="10">
+    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
-      <c r="B32" s="20">
+    <row r="34" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="20">
         <v>3</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G34" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23">
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="23">
         <v>4</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D35" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F35" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G35" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D37" s="13">
         <v>2</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -2119,88 +2179,88 @@
         <v>173</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
       <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D40" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="25"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D42" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
@@ -2209,52 +2269,52 @@
         <v>173</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D44" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="25"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D45" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -2263,34 +2323,34 @@
         <v>173</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>173</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="25"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
@@ -2299,16 +2359,16 @@
         <v>173</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="25"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
@@ -2317,16 +2377,16 @@
         <v>173</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="25"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -2335,16 +2395,16 @@
         <v>173</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
@@ -2353,16 +2413,16 @@
         <v>173</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="25"/>
-      <c r="B52" s="10">
-        <v>18</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>186</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="28"/>
+      <c r="B52" s="1">
+        <v>16</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -2371,16 +2431,16 @@
         <v>173</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="25"/>
-      <c r="B53" s="10">
-        <v>19</v>
+      <c r="A53" s="28"/>
+      <c r="B53" s="1">
+        <v>17</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D53" s="13">
         <v>1</v>
@@ -2389,16 +2449,16 @@
         <v>173</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="25"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="28"/>
       <c r="B54" s="10">
-        <v>20</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>188</v>
+        <v>18</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -2407,16 +2467,16 @@
         <v>173</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="25"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
@@ -2425,16 +2485,16 @@
         <v>173</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="25"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -2443,16 +2503,16 @@
         <v>173</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="25"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="28"/>
       <c r="B57" s="10">
-        <v>23</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>191</v>
+        <v>21</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
@@ -2461,16 +2521,16 @@
         <v>173</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="25"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
@@ -2479,16 +2539,16 @@
         <v>173</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="25"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" s="28"/>
       <c r="B59" s="10">
-        <v>25</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>193</v>
+        <v>23</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
@@ -2497,16 +2557,16 @@
         <v>173</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="25"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -2515,72 +2575,71 @@
         <v>173</v>
       </c>
       <c r="G60" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="28"/>
+      <c r="B61" s="10">
+        <v>25</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="28"/>
+      <c r="B62" s="10">
+        <v>26</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="25"/>
-      <c r="B61" s="10">
+    <row r="63" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="28"/>
+      <c r="B63" s="10">
         <v>27</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="25"/>
-      <c r="B62" s="10">
-        <v>28</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="25"/>
-      <c r="B63" s="10">
-        <v>29</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D63" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F63"/>
       <c r="G63" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="25"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="28"/>
       <c r="B64" s="10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D64" s="10">
         <v>1</v>
@@ -2588,71 +2647,72 @@
       <c r="E64" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F64"/>
       <c r="G64" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="25"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="10">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D65" s="10">
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="28"/>
+      <c r="B66" s="10">
+        <v>30</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="28"/>
+      <c r="B67" s="10">
+        <v>31</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="10">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G67" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="25"/>
-      <c r="B66" s="10">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="28"/>
+      <c r="B68" s="10">
         <v>32</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D66" s="10">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="25"/>
-      <c r="B67" s="10">
-        <v>33</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="10">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="25"/>
-      <c r="B68" s="10">
-        <v>34</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D68" s="10">
         <v>1</v>
@@ -2661,16 +2721,16 @@
         <v>6</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="25"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="28"/>
       <c r="B69" s="10">
-        <v>35</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D69" s="10">
         <v>1</v>
@@ -2678,304 +2738,301 @@
       <c r="E69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="G69" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="28"/>
+      <c r="B70" s="10">
+        <v>34</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="28"/>
+      <c r="B71" s="10">
+        <v>35</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="25"/>
-      <c r="B70" s="10">
+    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="28"/>
+      <c r="B72" s="10">
         <v>36</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C72" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D72" s="10">
         <v>0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="25"/>
-      <c r="B71" s="10">
-        <v>37</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="10">
-        <v>17</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="25"/>
-      <c r="B72" s="10">
-        <v>38</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="10">
-        <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="21" t="s">
-        <v>230</v>
-      </c>
       <c r="G72" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>58</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="28"/>
+      <c r="B73" s="10">
+        <v>37</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="10">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="28"/>
+      <c r="B74" s="10">
+        <v>38</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D74" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="10">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G76" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="25"/>
-      <c r="B75" s="1">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="28"/>
+      <c r="B77" s="1">
         <v>2</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G77" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="25" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="10">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F79" t="s">
         <v>67</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G79" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="25"/>
-      <c r="B78" s="1">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="28"/>
+      <c r="B80" s="1">
         <v>2</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="10">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D80" s="10">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F80" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G80" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="25"/>
-      <c r="B79" s="1">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="28"/>
+      <c r="B81" s="1">
         <v>3</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="10">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D81" s="10">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G81" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="25"/>
-      <c r="B80" s="1">
+    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="28"/>
+      <c r="B82" s="1">
         <v>4</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D80" s="8">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="D82" s="8">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G82" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="25"/>
-      <c r="B81" s="1">
+    <row r="83" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="28"/>
+      <c r="B83" s="1">
         <v>5</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D83" s="10">
         <v>3</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G83" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H83" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A82" s="25"/>
-      <c r="B82" s="1">
+    <row r="84" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A84" s="28"/>
+      <c r="B84" s="1">
         <v>6</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D84" s="10">
         <v>2</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G84" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H84" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="25"/>
-      <c r="B83" s="1">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="28"/>
+      <c r="B85" s="1">
         <v>7</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D83" s="10">
-        <v>2</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="25"/>
-      <c r="B84" s="1">
-        <v>8</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="25"/>
-      <c r="B85" s="1">
-        <v>9</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D85" s="10">
         <v>2</v>
@@ -2983,141 +3040,180 @@
       <c r="E85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="28"/>
+      <c r="B86" s="1">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" t="s">
+        <v>80</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="28"/>
+      <c r="B87" s="1">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="10">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s">
         <v>82</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="25"/>
-      <c r="B86" s="4">
+    <row r="88" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="28"/>
+      <c r="B88" s="4">
         <v>10</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="10">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="D88" s="10">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="10" t="s">
+      <c r="F88" s="5"/>
+      <c r="G88" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="25"/>
-      <c r="B87" s="18">
+    <row r="89" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A89" s="28"/>
+      <c r="B89" s="18">
         <v>11</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C89" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D87" s="18">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18" t="s">
+      <c r="D89" s="18">
+        <v>1</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G89" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H89" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="25"/>
-      <c r="B88" s="18">
+    <row r="90" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="28"/>
+      <c r="B90" s="18">
         <v>12</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C90" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D90" s="18">
         <v>0</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E90" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G90" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I90" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="25" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B90" s="1">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D92" s="10">
         <v>6</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="25"/>
-      <c r="B91" s="1">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="28"/>
+      <c r="B93" s="1">
         <v>3</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="10">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="D93" s="10">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G93" s="10" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A79:A90"/>
+    <mergeCell ref="A37:A74"/>
     <mergeCell ref="H1:Z1"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A35:A72"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A22:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="231">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,6 +938,19 @@
   </si>
   <si>
     <t>2018-12-20 13:10 机电部史晓星、刘杰放入4块铅板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-21 机电部
+幺学斌取出1个光幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.14 14:32 机电部王彦辉取出10m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.14 14:32 机电部王彦辉取出4m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,6 +1080,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2281,7 +2297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
       <c r="B49" s="1">
         <v>15</v>
@@ -2299,7 +2315,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
       <c r="B50" s="1">
         <v>16</v>
@@ -2317,7 +2333,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="25"/>
       <c r="B51" s="1">
         <v>17</v>
@@ -2334,8 +2350,11 @@
       <c r="G51" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="H51" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="25"/>
       <c r="B52" s="10">
         <v>18</v>
@@ -2353,7 +2372,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="25"/>
       <c r="B53" s="10">
         <v>19</v>
@@ -2371,12 +2390,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="25"/>
       <c r="B54" s="10">
         <v>20</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="27" t="s">
         <v>189</v>
       </c>
       <c r="D54" s="13">
@@ -2388,8 +2407,11 @@
       <c r="G54" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H54" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="25"/>
       <c r="B55" s="10">
         <v>21</v>
@@ -2407,7 +2429,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="25"/>
       <c r="B56" s="10">
         <v>22</v>
@@ -2425,7 +2447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="25"/>
       <c r="B57" s="10">
         <v>23</v>
@@ -2443,7 +2465,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="25"/>
       <c r="B58" s="10">
         <v>24</v>
@@ -2461,7 +2483,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="25"/>
       <c r="B59" s="10">
         <v>25</v>
@@ -2479,7 +2501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="25"/>
       <c r="B60" s="10">
         <v>26</v>
@@ -2497,7 +2519,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
       <c r="B61" s="10">
         <v>27</v>
@@ -2516,7 +2538,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="25"/>
       <c r="B62" s="10">
         <v>28</v>
@@ -2535,7 +2557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="25"/>
       <c r="B63" s="10">
         <v>29</v>
@@ -2553,7 +2575,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="25"/>
       <c r="B64" s="10">
         <v>30</v>
@@ -2589,12 +2611,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="25"/>
       <c r="B66" s="10">
         <v>32</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D66" s="10">
@@ -2605,6 +2627,9 @@
       </c>
       <c r="G66" s="10" t="s">
         <v>160</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="240">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,11 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.12.4日张禄禄、
-王欢放入一个主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连接线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,11 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.12.4日张禄禄、
-王欢放入一个A5探测器包装箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>螺栓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -955,6 +945,52 @@
   </si>
   <si>
     <t>2019.01.16 10:18 机电部王彦辉取出1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.16 11:40 机电部王彦辉取出5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.04 张禄禄、
+王欢放入一个A5探测器包装箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.04 张禄禄、
+王欢放入一个主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.16 机电部陈晓泽
+取出一个，用于A6融合标定
+测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1定位仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1定位仪支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShY_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShY_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.18 核辐射事业部
+王欢放入2个A1定位仪支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.18 核辐射事业部
+王欢放入2箱A1定位仪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,12 +1118,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1393,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1435,31 +1478,31 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1479,7 +1522,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1497,15 +1540,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1525,7 +1568,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1546,7 +1589,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1566,11 +1609,11 @@
         <v>90</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1587,11 +1630,11 @@
         <v>92</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1609,7 +1652,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1627,7 +1670,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1645,7 +1688,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1663,7 +1706,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1681,7 +1724,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1699,7 +1742,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1717,7 +1760,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1735,7 +1778,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1753,7 +1796,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1774,7 +1817,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1792,15 +1835,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1820,7 +1863,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1838,7 +1881,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1856,7 +1899,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1874,7 +1917,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1892,7 +1935,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1910,7 +1953,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1928,7 +1971,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
@@ -1952,15 +1995,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="29" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1">
@@ -1980,7 +2023,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -1998,57 +2041,57 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="20">
         <v>3</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="H32" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="23">
         <v>4</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D33" s="23">
         <v>4</v>
       </c>
       <c r="E33" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="1">
@@ -2068,7 +2111,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="1">
         <v>2</v>
       </c>
@@ -2085,11 +2128,11 @@
         <v>113</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -2106,8 +2149,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
       <c r="B38" s="1">
         <v>4</v>
       </c>
@@ -2123,9 +2166,12 @@
       <c r="G38" s="10" t="s">
         <v>115</v>
       </c>
+      <c r="H38" s="8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="1">
         <v>5</v>
       </c>
@@ -2143,7 +2189,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -2161,7 +2207,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="1">
         <v>7</v>
       </c>
@@ -2179,7 +2225,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="1">
         <v>8</v>
       </c>
@@ -2197,7 +2243,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="1">
         <v>9</v>
       </c>
@@ -2215,7 +2261,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="27"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="1">
         <v>10</v>
       </c>
@@ -2233,7 +2279,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="27"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -2251,7 +2297,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -2269,7 +2315,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="1">
         <v>13</v>
       </c>
@@ -2287,7 +2333,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="1">
         <v>14</v>
       </c>
@@ -2305,7 +2351,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="1">
         <v>15</v>
       </c>
@@ -2323,7 +2369,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="1">
         <v>16</v>
       </c>
@@ -2341,7 +2387,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="1">
         <v>17</v>
       </c>
@@ -2358,11 +2404,11 @@
         <v>128</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="10">
         <v>18</v>
       </c>
@@ -2380,7 +2426,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="27"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="10">
         <v>19</v>
       </c>
@@ -2398,7 +2444,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="27"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="10">
         <v>20</v>
       </c>
@@ -2415,11 +2461,11 @@
         <v>148</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="27"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="10">
         <v>21</v>
       </c>
@@ -2437,7 +2483,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="10">
         <v>22</v>
       </c>
@@ -2455,7 +2501,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="27"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="10">
         <v>23</v>
       </c>
@@ -2473,7 +2519,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="27"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="10">
         <v>24</v>
       </c>
@@ -2491,7 +2537,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="27"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="10">
         <v>25</v>
       </c>
@@ -2509,7 +2555,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="27"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="10">
         <v>26</v>
       </c>
@@ -2527,7 +2573,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="27"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="10">
         <v>27</v>
       </c>
@@ -2546,7 +2592,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="27"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="10">
         <v>28</v>
       </c>
@@ -2565,7 +2611,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="27"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="10">
         <v>29</v>
       </c>
@@ -2583,7 +2629,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="27"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="10">
         <v>30</v>
       </c>
@@ -2601,7 +2647,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="27"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="10">
         <v>31</v>
       </c>
@@ -2619,7 +2665,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="10">
         <v>32</v>
       </c>
@@ -2636,11 +2682,11 @@
         <v>160</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="27"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="10">
         <v>33</v>
       </c>
@@ -2658,7 +2704,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="27"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="10">
         <v>34</v>
       </c>
@@ -2676,7 +2722,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="27"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="10">
         <v>35</v>
       </c>
@@ -2697,7 +2743,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="27"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="10">
         <v>36</v>
       </c>
@@ -2714,11 +2760,11 @@
         <v>164</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="27"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="10">
         <v>37</v>
       </c>
@@ -2736,7 +2782,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="27"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="10">
         <v>38</v>
       </c>
@@ -2756,19 +2802,19 @@
         <v>166</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="29" t="s">
         <v>60</v>
       </c>
       <c r="B74" s="1">
@@ -2791,7 +2837,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="27"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="1">
         <v>2</v>
       </c>
@@ -2809,15 +2855,15 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B77" s="1">
@@ -2840,7 +2886,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="27"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -2861,7 +2907,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="27"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="1">
         <v>3</v>
       </c>
@@ -2879,7 +2925,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="27"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="1">
         <v>4</v>
       </c>
@@ -2897,7 +2943,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="27"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="1">
         <v>5</v>
       </c>
@@ -2914,11 +2960,11 @@
         <v>134</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A82" s="27"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="1">
         <v>6</v>
       </c>
@@ -2935,11 +2981,11 @@
         <v>135</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="27"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="1">
         <v>7</v>
       </c>
@@ -2957,7 +3003,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="27"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="1">
         <v>8</v>
       </c>
@@ -2977,29 +3023,32 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="27"/>
+    <row r="85" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="29"/>
       <c r="B85" s="1">
         <v>9</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D85" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="30" t="s">
         <v>83</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="H85" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="27"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="4">
         <v>10</v>
       </c>
@@ -3018,105 +3067,149 @@
       </c>
     </row>
     <row r="87" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="27"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="18">
         <v>11</v>
       </c>
       <c r="C87" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D87" s="18">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18" t="s">
+      <c r="G87" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="H87" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="27"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="18">
         <v>12</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D88" s="18">
         <v>0</v>
       </c>
       <c r="E88" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="H88" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="I88" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A89" s="29"/>
+      <c r="B89" s="26">
+        <v>13</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="26">
+        <v>2</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="1:9" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="29"/>
+      <c r="B90" s="26">
+        <v>14</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="26">
+        <v>2</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="1">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D92" s="10">
         <v>6</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="27"/>
-      <c r="B91" s="1">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="29"/>
+      <c r="B93" s="1">
         <v>3</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D91" s="10">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="D93" s="10">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G93" s="10" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:A93"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A73:F73"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A77:A88"/>
     <mergeCell ref="A35:A72"/>
+    <mergeCell ref="A77:A90"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A2:A3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="241">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,6 +991,11 @@
   <si>
     <t>2019.01.18 核辐射事业部
 王欢放入2箱A1定位仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.01.25 09:56 机电部
+刘杰、幺学斌取出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,15 +1127,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1478,31 +1484,31 @@
       <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1522,7 +1528,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1540,15 +1546,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1">
@@ -1568,7 +1574,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1589,7 +1595,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1613,7 +1619,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1634,7 +1640,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1652,7 +1658,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1670,7 +1676,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1688,7 +1694,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1706,7 +1712,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1724,7 +1730,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1742,7 +1748,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1760,7 +1766,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1778,7 +1784,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1796,7 +1802,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1817,7 +1823,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1835,15 +1841,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
@@ -1863,7 +1869,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -1881,7 +1887,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="1">
         <v>3</v>
       </c>
@@ -1899,7 +1905,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="1">
         <v>4</v>
       </c>
@@ -1917,7 +1923,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="1">
         <v>5</v>
       </c>
@@ -1935,7 +1941,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="1">
         <v>6</v>
       </c>
@@ -1953,7 +1959,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="1">
         <v>7</v>
       </c>
@@ -1971,7 +1977,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
@@ -1995,25 +2001,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="29" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>52</v>
@@ -2021,9 +2027,12 @@
       <c r="G30" s="10" t="s">
         <v>111</v>
       </c>
+      <c r="H30" s="11" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -2039,9 +2048,10 @@
       <c r="G31" s="10" t="s">
         <v>145</v>
       </c>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="20">
         <v>3</v>
       </c>
@@ -2062,7 +2072,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="23">
         <v>4</v>
       </c>
@@ -2083,15 +2093,15 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="1">
@@ -2111,7 +2121,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="1">
         <v>2</v>
       </c>
@@ -2132,7 +2142,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -2150,7 +2160,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="1">
         <v>4</v>
       </c>
@@ -2171,7 +2181,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="1">
         <v>5</v>
       </c>
@@ -2189,7 +2199,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -2207,7 +2217,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="1">
         <v>7</v>
       </c>
@@ -2225,7 +2235,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="1">
         <v>8</v>
       </c>
@@ -2243,7 +2253,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="1">
         <v>9</v>
       </c>
@@ -2261,7 +2271,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="1">
         <v>10</v>
       </c>
@@ -2279,7 +2289,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -2297,7 +2307,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -2315,7 +2325,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="1">
         <v>13</v>
       </c>
@@ -2333,7 +2343,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="1">
         <v>14</v>
       </c>
@@ -2351,7 +2361,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="1">
         <v>15</v>
       </c>
@@ -2369,7 +2379,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="1">
         <v>16</v>
       </c>
@@ -2387,7 +2397,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="1">
         <v>17</v>
       </c>
@@ -2408,7 +2418,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="10">
         <v>18</v>
       </c>
@@ -2426,7 +2436,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="10">
         <v>19</v>
       </c>
@@ -2444,7 +2454,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="10">
         <v>20</v>
       </c>
@@ -2465,7 +2475,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="10">
         <v>21</v>
       </c>
@@ -2483,7 +2493,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="10">
         <v>22</v>
       </c>
@@ -2501,7 +2511,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="10">
         <v>23</v>
       </c>
@@ -2519,7 +2529,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="10">
         <v>24</v>
       </c>
@@ -2537,7 +2547,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="10">
         <v>25</v>
       </c>
@@ -2555,7 +2565,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="10">
         <v>26</v>
       </c>
@@ -2573,7 +2583,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="10">
         <v>27</v>
       </c>
@@ -2592,7 +2602,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="10">
         <v>28</v>
       </c>
@@ -2611,7 +2621,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="10">
         <v>29</v>
       </c>
@@ -2629,7 +2639,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="10">
         <v>30</v>
       </c>
@@ -2647,7 +2657,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="10">
         <v>31</v>
       </c>
@@ -2665,7 +2675,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="10">
         <v>32</v>
       </c>
@@ -2686,7 +2696,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="29"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="10">
         <v>33</v>
       </c>
@@ -2704,7 +2714,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="29"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="10">
         <v>34</v>
       </c>
@@ -2722,7 +2732,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="10">
         <v>35</v>
       </c>
@@ -2743,7 +2753,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="10">
         <v>36</v>
       </c>
@@ -2764,7 +2774,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="10">
         <v>37</v>
       </c>
@@ -2782,7 +2792,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="29"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="10">
         <v>38</v>
       </c>
@@ -2806,15 +2816,15 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B74" s="1">
@@ -2837,7 +2847,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="29"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="1">
         <v>2</v>
       </c>
@@ -2855,15 +2865,15 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B77" s="1">
@@ -2886,7 +2896,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -2907,7 +2917,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="1">
         <v>3</v>
       </c>
@@ -2925,7 +2935,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="29"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="1">
         <v>4</v>
       </c>
@@ -2943,7 +2953,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="1">
         <v>5</v>
       </c>
@@ -2964,7 +2974,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="1">
         <v>6</v>
       </c>
@@ -2985,7 +2995,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="29"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="1">
         <v>7</v>
       </c>
@@ -3003,7 +3013,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="29"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="1">
         <v>8</v>
       </c>
@@ -3024,7 +3034,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="1">
         <v>9</v>
       </c>
@@ -3037,7 +3047,7 @@
       <c r="E85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="28" t="s">
         <v>83</v>
       </c>
       <c r="G85" s="10" t="s">
@@ -3048,7 +3058,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="4">
         <v>10</v>
       </c>
@@ -3067,7 +3077,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="18">
         <v>11</v>
       </c>
@@ -3088,7 +3098,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="18">
         <v>12</v>
       </c>
@@ -3112,7 +3122,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="26">
         <v>13</v>
       </c>
@@ -3134,7 +3144,7 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="26">
         <v>14</v>
       </c>
@@ -3156,15 +3166,15 @@
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B92" s="1">
@@ -3184,7 +3194,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="1">
         <v>3</v>
       </c>
@@ -3203,13 +3213,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A35:A72"/>
-    <mergeCell ref="A77:A90"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A2:A3"/>
@@ -3219,6 +3222,13 @@
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A35:A72"/>
+    <mergeCell ref="A77:A90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="248">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,10 +232,6 @@
   </si>
   <si>
     <t>工作台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全是螺栓之类物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,6 +836,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018.12.4日张禄禄、
+王欢放入一个主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>连接线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,6 +875,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018.12.4日张禄禄、
+王欢放入一个A5探测器包装箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>螺栓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,48 +937,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-12-21 机电部
-幺学斌取出1个光幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.14 14:32 机电部王彦辉取出10m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.14 14:32 机电部王彦辉取出4m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.16 10:18 机电部王彦辉取出1m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.16 11:40 机电部王彦辉取出5m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.04 张禄禄、
-王欢放入一个A5探测器包装箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.12.04 张禄禄、
-王欢放入一个主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.16 机电部陈晓泽
-取出一个，用于A6融合标定
-测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1定位仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1定位仪支架</t>
+    <t>2018-12-25 售后服务部
+祁迎春取出一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-26 11:00 售后
+服务部祁迎春取出两个，
+发往工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色梯形铅板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全是螺栓、螺母之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄铅板，屏蔽用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-29 11:45 机电部
+刘杰放入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-29 11:45 机电部
+刘杰放入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-29 11:45 机电部
+刘杰放入1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5高灵敏探测器
+外壳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,22 +1008,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ShY_014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.18 核辐射事业部
-王欢放入2个A1定位仪支架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.18 核辐射事业部
-王欢放入2箱A1定位仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.01.25 09:56 机电部
-刘杰、幺学斌取出</t>
+    <t>2019.02.14 13:28 张禄禄、
+王欢放入1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双鼠床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-14 13:58 机电部
+刘杰放入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,8 +1151,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1129,14 +1161,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA93"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1467,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1482,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -1508,7 +1543,7 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1524,11 +1559,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1542,182 +1577,192 @@
         <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="29">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="H10" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="1">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -1726,70 +1771,73 @@
         <v>23</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="1">
+      <c r="H16" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -1798,101 +1846,101 @@
         <v>35</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="10">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="10" t="s">
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="7">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="7">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -1901,750 +1949,742 @@
         <v>7</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
       <c r="B25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="1">
+    <row r="30" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="18">
+        <v>8</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="25">
+        <v>9</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="25">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="20">
+        <v>3</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="20">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="23">
+        <v>4</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="23">
+        <v>4</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="13">
+        <v>4</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="18">
+      <c r="C44" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
+      <c r="B45" s="1">
         <v>8</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="18">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
-      <c r="B31" s="10">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
-      <c r="B32" s="20">
-        <v>3</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="23">
-        <v>4</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="23">
-        <v>4</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="13">
-        <v>2</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="30"/>
-      <c r="B40" s="1">
-        <v>6</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="13">
-        <v>4</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="30"/>
-      <c r="B41" s="1">
-        <v>7</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="1">
-        <v>8</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="13">
-        <v>2</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
-      <c r="B43" s="1">
-        <v>9</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="1">
-        <v>10</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="30"/>
-      <c r="B45" s="1">
-        <v>11</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>180</v>
       </c>
       <c r="D45" s="13">
         <v>2</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G45" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="1">
+        <v>9</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="1">
+        <v>12</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="1">
-        <v>12</v>
-      </c>
-      <c r="C46" s="14" t="s">
+    <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
+      <c r="B50" s="1">
+        <v>13</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="1">
-        <v>13</v>
-      </c>
-      <c r="C47" s="14" t="s">
+    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
+      <c r="B51" s="1">
+        <v>14</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="1">
-        <v>14</v>
-      </c>
-      <c r="C48" s="14" t="s">
+    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="33"/>
+      <c r="B52" s="1">
+        <v>15</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="1">
-        <v>15</v>
-      </c>
-      <c r="C49" s="14" t="s">
+    <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="33"/>
+      <c r="B53" s="1">
+        <v>16</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="10" t="s">
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="30"/>
-      <c r="B50" s="1">
-        <v>16</v>
-      </c>
-      <c r="C50" s="14" t="s">
+    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
+      <c r="B54" s="1">
+        <v>17</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="1">
-        <v>17</v>
-      </c>
-      <c r="C51" s="24" t="s">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
+      <c r="B55" s="10">
+        <v>18</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
-      <c r="B52" s="10">
-        <v>18</v>
-      </c>
-      <c r="C52" s="15" t="s">
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
+      <c r="B56" s="10">
+        <v>19</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="10" t="s">
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="30"/>
-      <c r="B53" s="10">
-        <v>19</v>
-      </c>
-      <c r="C53" s="14" t="s">
+    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
+      <c r="B57" s="10">
+        <v>20</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" s="10" t="s">
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="30"/>
-      <c r="B54" s="10">
-        <v>20</v>
-      </c>
-      <c r="C54" s="24" t="s">
+    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
+      <c r="B58" s="10">
+        <v>21</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54" s="10" t="s">
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="30"/>
-      <c r="B55" s="10">
-        <v>21</v>
-      </c>
-      <c r="C55" s="14" t="s">
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
+      <c r="B59" s="10">
+        <v>22</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="10" t="s">
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
-      <c r="B56" s="10">
-        <v>22</v>
-      </c>
-      <c r="C56" s="14" t="s">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
+      <c r="B60" s="10">
+        <v>23</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="10" t="s">
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="30"/>
-      <c r="B57" s="10">
-        <v>23</v>
-      </c>
-      <c r="C57" s="11" t="s">
+    <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
+      <c r="B61" s="10">
+        <v>24</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G57" s="10" t="s">
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="30"/>
-      <c r="B58" s="10">
-        <v>24</v>
-      </c>
-      <c r="C58" s="14" t="s">
+    <row r="62" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
+      <c r="B62" s="10">
+        <v>25</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="10" t="s">
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30"/>
-      <c r="B59" s="10">
-        <v>25</v>
-      </c>
-      <c r="C59" s="14" t="s">
+    <row r="63" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
+      <c r="B63" s="10">
+        <v>26</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="13">
-        <v>1</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59" s="10" t="s">
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="30"/>
-      <c r="B60" s="10">
-        <v>26</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="30"/>
-      <c r="B61" s="10">
+    <row r="64" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
+      <c r="B64" s="10">
         <v>27</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="10">
-        <v>28</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="30"/>
-      <c r="B63" s="10">
-        <v>29</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="10">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="30"/>
-      <c r="B64" s="10">
-        <v>30</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D64" s="10">
         <v>1</v>
@@ -2652,92 +2692,91 @@
       <c r="E64" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F64"/>
       <c r="G64" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
+      <c r="B65" s="10">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="33"/>
+      <c r="B66" s="10">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="10">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="33"/>
+      <c r="B67" s="10">
+        <v>30</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="33"/>
+      <c r="B68" s="10">
+        <v>31</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="10">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="30"/>
-      <c r="B65" s="10">
-        <v>31</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="10">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="30"/>
-      <c r="B66" s="10">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="33"/>
+      <c r="B69" s="10">
         <v>32</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C69" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D66" s="10">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="30"/>
-      <c r="B67" s="10">
-        <v>33</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="10">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="30"/>
-      <c r="B68" s="10">
-        <v>34</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="30"/>
-      <c r="B69" s="10">
-        <v>35</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>50</v>
       </c>
       <c r="D69" s="10">
         <v>1</v>
@@ -2745,114 +2784,116 @@
       <c r="E69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="G69" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="33"/>
+      <c r="B70" s="10">
+        <v>33</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="33"/>
+      <c r="B71" s="10">
+        <v>34</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="10">
+        <v>35</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="33"/>
+      <c r="B73" s="10">
+        <v>36</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="30"/>
-      <c r="B70" s="10">
-        <v>36</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="10">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="30"/>
-      <c r="B71" s="10">
+      <c r="H73" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="33"/>
+      <c r="B74" s="10">
         <v>37</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C74" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="10">
-        <v>18</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="30"/>
-      <c r="B72" s="10">
-        <v>38</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="10">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D74" s="10">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F74" t="s">
-        <v>85</v>
-      </c>
       <c r="G74" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="30"/>
-      <c r="B75" s="1">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>58</v>
+        <v>164</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="33"/>
+      <c r="B75" s="10">
+        <v>38</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D75" s="10">
         <v>1</v>
@@ -2860,375 +2901,405 @@
       <c r="E75" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F75" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="G75" s="10" t="s">
-        <v>129</v>
+        <v>165</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="30" t="s">
-        <v>69</v>
+      <c r="A77" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D77" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="30"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="33"/>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="10">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="10">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="G81" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="33"/>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="10">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="33"/>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="33"/>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="10">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A85" s="33"/>
+      <c r="B85" s="1">
+        <v>6</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="10">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="33"/>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="10">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="33"/>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" t="s">
+        <v>80</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="33"/>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="10">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="33"/>
+      <c r="B89" s="4">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="10">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="33"/>
+      <c r="B90" s="18">
+        <v>11</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="18">
+        <v>1</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A91" s="33"/>
+      <c r="B91" s="18">
         <v>12</v>
       </c>
-      <c r="F78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="30"/>
-      <c r="B79" s="1">
+      <c r="C91" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="33"/>
+      <c r="B92" s="27">
+        <v>13</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="27">
+        <v>1</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="10">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="33"/>
+      <c r="B95" s="1">
         <v>3</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="10">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="30"/>
-      <c r="B80" s="1">
-        <v>4</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="8">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="30"/>
-      <c r="B81" s="1">
-        <v>5</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81" s="10">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A82" s="30"/>
-      <c r="B82" s="1">
-        <v>6</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="10">
-        <v>2</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="30"/>
-      <c r="B83" s="1">
-        <v>7</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="10">
-        <v>2</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="30"/>
-      <c r="B84" s="1">
-        <v>8</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="30"/>
-      <c r="B85" s="1">
-        <v>9</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="10">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="30"/>
-      <c r="B86" s="4">
-        <v>10</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="10">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="30"/>
-      <c r="B87" s="18">
-        <v>11</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D87" s="18">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="30"/>
-      <c r="B88" s="18">
-        <v>12</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" s="18">
-        <v>0</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A89" s="30"/>
-      <c r="B89" s="26">
-        <v>13</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D89" s="26">
-        <v>2</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="1:9" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="30"/>
-      <c r="B90" s="26">
-        <v>14</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="26">
-        <v>2</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" s="10">
-        <v>6</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" s="10" t="s">
+      <c r="C95" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" s="10">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="30"/>
-      <c r="B93" s="1">
-        <v>3</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="10">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A38:A75"/>
+    <mergeCell ref="A80:A92"/>
     <mergeCell ref="H1:Z1"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A35:A72"/>
-    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="250">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,6 +1027,16 @@
   <si>
     <t>2019-02-14 13:58 机电部
 刘杰放入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-23 机电部
+史晓星放入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-19 机电部
+刘杰取出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,12 +1176,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1519,31 +1529,31 @@
       <c r="G1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1563,7 +1573,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1581,7 +1591,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="25">
         <v>3</v>
       </c>
@@ -1605,7 +1615,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="29">
         <v>4</v>
       </c>
@@ -1627,15 +1637,15 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1">
@@ -1655,7 +1665,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1676,7 +1686,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1700,7 +1710,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -1721,7 +1731,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -1739,7 +1749,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -1757,7 +1767,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -1775,7 +1785,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -1793,7 +1803,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1">
         <v>9</v>
       </c>
@@ -1811,7 +1821,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1">
         <v>10</v>
       </c>
@@ -1832,7 +1842,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -1850,7 +1860,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -1868,7 +1878,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -1886,7 +1896,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -1907,7 +1917,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="7">
         <v>15</v>
       </c>
@@ -1925,15 +1935,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1">
@@ -1953,7 +1963,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1971,7 +1981,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -1992,7 +2002,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
@@ -2010,7 +2020,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
@@ -2028,7 +2038,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
@@ -2046,7 +2056,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -2064,7 +2074,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="18">
         <v>8</v>
       </c>
@@ -2088,7 +2098,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>9</v>
       </c>
@@ -2110,15 +2120,15 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="1">
@@ -2138,7 +2148,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -2156,7 +2166,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="20">
         <v>3</v>
       </c>
@@ -2177,7 +2187,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="23">
         <v>4</v>
       </c>
@@ -2201,15 +2211,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="1">
@@ -2229,7 +2239,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -2247,7 +2257,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -2265,7 +2275,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="1">
         <v>4</v>
       </c>
@@ -2283,7 +2293,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="1">
         <v>5</v>
       </c>
@@ -2301,7 +2311,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="1">
         <v>6</v>
       </c>
@@ -2319,7 +2329,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="1">
         <v>7</v>
       </c>
@@ -2337,7 +2347,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="1">
         <v>8</v>
       </c>
@@ -2355,7 +2365,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="1">
         <v>9</v>
       </c>
@@ -2373,7 +2383,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="1">
         <v>10</v>
       </c>
@@ -2391,7 +2401,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="1">
         <v>11</v>
       </c>
@@ -2409,7 +2419,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="1">
         <v>12</v>
       </c>
@@ -2427,7 +2437,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="1">
         <v>13</v>
       </c>
@@ -2445,7 +2455,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="1">
         <v>14</v>
       </c>
@@ -2463,7 +2473,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="1">
         <v>15</v>
       </c>
@@ -2481,7 +2491,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="1">
         <v>16</v>
       </c>
@@ -2499,7 +2509,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="1">
         <v>17</v>
       </c>
@@ -2517,7 +2527,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -2535,7 +2545,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="10">
         <v>19</v>
       </c>
@@ -2553,7 +2563,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="10">
         <v>20</v>
       </c>
@@ -2571,7 +2581,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="10">
         <v>21</v>
       </c>
@@ -2589,7 +2599,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="10">
         <v>22</v>
       </c>
@@ -2607,7 +2617,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="10">
         <v>23</v>
       </c>
@@ -2625,7 +2635,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="10">
         <v>24</v>
       </c>
@@ -2643,7 +2653,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="10">
         <v>25</v>
       </c>
@@ -2661,7 +2671,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="10">
         <v>26</v>
       </c>
@@ -2679,7 +2689,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="10">
         <v>27</v>
       </c>
@@ -2697,8 +2707,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
+    <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="32"/>
       <c r="B65" s="10">
         <v>28</v>
       </c>
@@ -2716,8 +2726,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="32"/>
       <c r="B66" s="10">
         <v>29</v>
       </c>
@@ -2734,8 +2744,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="32"/>
       <c r="B67" s="10">
         <v>30</v>
       </c>
@@ -2752,8 +2762,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="32"/>
       <c r="B68" s="10">
         <v>31</v>
       </c>
@@ -2770,8 +2780,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="32"/>
       <c r="B69" s="10">
         <v>32</v>
       </c>
@@ -2788,8 +2798,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="32"/>
       <c r="B70" s="10">
         <v>33</v>
       </c>
@@ -2806,8 +2816,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
       <c r="B71" s="10">
         <v>34</v>
       </c>
@@ -2824,8 +2834,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
+    <row r="72" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="32"/>
       <c r="B72" s="10">
         <v>35</v>
       </c>
@@ -2845,8 +2855,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="33"/>
+    <row r="73" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="32"/>
       <c r="B73" s="10">
         <v>36</v>
       </c>
@@ -2865,9 +2875,15 @@
       <c r="H73" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
+      <c r="I73" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="32"/>
       <c r="B74" s="10">
         <v>37</v>
       </c>
@@ -2887,8 +2903,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
+    <row r="75" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="32"/>
       <c r="B75" s="10">
         <v>38</v>
       </c>
@@ -2911,16 +2927,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="33" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="1">
@@ -2942,8 +2958,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="32"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -2960,16 +2976,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="33" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="1">
@@ -2992,7 +3008,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -3013,7 +3029,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="1">
         <v>3</v>
       </c>
@@ -3031,7 +3047,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="1">
         <v>4</v>
       </c>
@@ -3049,7 +3065,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="1">
         <v>5</v>
       </c>
@@ -3070,7 +3086,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="1">
         <v>6</v>
       </c>
@@ -3091,7 +3107,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="1">
         <v>7</v>
       </c>
@@ -3109,7 +3125,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="1">
         <v>8</v>
       </c>
@@ -3130,7 +3146,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="1">
         <v>9</v>
       </c>
@@ -3151,7 +3167,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="4">
         <v>10</v>
       </c>
@@ -3170,7 +3186,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="18">
         <v>11</v>
       </c>
@@ -3191,7 +3207,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="18">
         <v>12</v>
       </c>
@@ -3215,7 +3231,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="27">
         <v>13</v>
       </c>
@@ -3237,15 +3253,15 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B94" s="1">
@@ -3265,7 +3281,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="1">
         <v>3</v>
       </c>
@@ -3284,13 +3300,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A38:A75"/>
-    <mergeCell ref="A80:A92"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A6:F6"/>
@@ -3300,6 +3309,13 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A38:A75"/>
+    <mergeCell ref="A80:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="251">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,6 +1037,11 @@
   <si>
     <t>2019-02-19 机电部
 刘杰取出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-28 10:20 机电部
+王彦辉取出2米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1176,12 +1181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1529,31 +1534,31 @@
       <c r="G1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1573,7 +1578,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1591,7 +1596,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="25">
         <v>3</v>
       </c>
@@ -1615,7 +1620,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="29">
         <v>4</v>
       </c>
@@ -1637,15 +1642,15 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1">
@@ -1665,7 +1670,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1686,7 +1691,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1710,7 +1715,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -1731,7 +1736,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -1749,7 +1754,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -1767,7 +1772,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -1785,7 +1790,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -1803,7 +1808,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1">
         <v>9</v>
       </c>
@@ -1821,7 +1826,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1">
         <v>10</v>
       </c>
@@ -1842,7 +1847,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -1860,7 +1865,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -1878,7 +1883,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -1896,7 +1901,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -1917,7 +1922,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="7">
         <v>15</v>
       </c>
@@ -1935,15 +1940,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1">
@@ -1963,7 +1968,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1981,7 +1986,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -2002,7 +2007,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
@@ -2020,7 +2025,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
@@ -2038,7 +2043,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
@@ -2056,7 +2061,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -2074,7 +2079,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="18">
         <v>8</v>
       </c>
@@ -2098,7 +2103,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="25">
         <v>9</v>
       </c>
@@ -2120,15 +2125,15 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="1">
@@ -2148,7 +2153,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -2166,7 +2171,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="20">
         <v>3</v>
       </c>
@@ -2187,7 +2192,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="23">
         <v>4</v>
       </c>
@@ -2211,15 +2216,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="1">
@@ -2239,7 +2244,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -2257,7 +2262,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -2275,7 +2280,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="1">
         <v>4</v>
       </c>
@@ -2293,7 +2298,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="1">
         <v>5</v>
       </c>
@@ -2311,7 +2316,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="1">
         <v>6</v>
       </c>
@@ -2329,7 +2334,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="32"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="1">
         <v>7</v>
       </c>
@@ -2347,7 +2352,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="32"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="1">
         <v>8</v>
       </c>
@@ -2365,7 +2370,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="1">
         <v>9</v>
       </c>
@@ -2383,7 +2388,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="1">
         <v>10</v>
       </c>
@@ -2401,7 +2406,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="1">
         <v>11</v>
       </c>
@@ -2418,8 +2423,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="32"/>
+    <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
       <c r="B49" s="1">
         <v>12</v>
       </c>
@@ -2436,8 +2441,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="32"/>
+    <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
       <c r="B50" s="1">
         <v>13</v>
       </c>
@@ -2454,8 +2459,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
+    <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
       <c r="B51" s="1">
         <v>14</v>
       </c>
@@ -2472,8 +2477,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="32"/>
+    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="33"/>
       <c r="B52" s="1">
         <v>15</v>
       </c>
@@ -2490,8 +2495,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="32"/>
+    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="33"/>
       <c r="B53" s="1">
         <v>16</v>
       </c>
@@ -2508,8 +2513,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
+    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
       <c r="B54" s="1">
         <v>17</v>
       </c>
@@ -2526,8 +2531,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
+    <row r="55" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -2544,8 +2549,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
       <c r="B56" s="10">
         <v>19</v>
       </c>
@@ -2562,8 +2567,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="32"/>
+    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
       <c r="B57" s="10">
         <v>20</v>
       </c>
@@ -2580,8 +2585,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="32"/>
+    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
       <c r="B58" s="10">
         <v>21</v>
       </c>
@@ -2598,8 +2603,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
       <c r="B59" s="10">
         <v>22</v>
       </c>
@@ -2616,8 +2621,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="32"/>
+    <row r="60" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
       <c r="B60" s="10">
         <v>23</v>
       </c>
@@ -2633,9 +2638,12 @@
       <c r="G60" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
+      <c r="H60" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
       <c r="B61" s="10">
         <v>24</v>
       </c>
@@ -2652,8 +2660,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
+    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
       <c r="B62" s="10">
         <v>25</v>
       </c>
@@ -2670,8 +2678,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="32"/>
+    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
       <c r="B63" s="10">
         <v>26</v>
       </c>
@@ -2688,8 +2696,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="32"/>
+    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
       <c r="B64" s="10">
         <v>27</v>
       </c>
@@ -2708,7 +2716,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="32"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="10">
         <v>28</v>
       </c>
@@ -2727,7 +2735,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="32"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="10">
         <v>29</v>
       </c>
@@ -2745,7 +2753,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="32"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="10">
         <v>30</v>
       </c>
@@ -2763,7 +2771,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="32"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="10">
         <v>31</v>
       </c>
@@ -2781,7 +2789,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="10">
         <v>32</v>
       </c>
@@ -2799,7 +2807,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="10">
         <v>33</v>
       </c>
@@ -2817,7 +2825,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="10">
         <v>34</v>
       </c>
@@ -2835,7 +2843,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="32"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="10">
         <v>35</v>
       </c>
@@ -2856,7 +2864,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="10">
         <v>36</v>
       </c>
@@ -2883,7 +2891,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="10">
         <v>37</v>
       </c>
@@ -2904,7 +2912,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="10">
         <v>38</v>
       </c>
@@ -2928,15 +2936,15 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="1">
@@ -2959,7 +2967,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="32"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -2977,15 +2985,15 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="1">
@@ -3008,7 +3016,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="32"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -3029,7 +3037,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="1">
         <v>3</v>
       </c>
@@ -3047,7 +3055,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="1">
         <v>4</v>
       </c>
@@ -3065,7 +3073,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="32"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="1">
         <v>5</v>
       </c>
@@ -3086,7 +3094,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="32"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="1">
         <v>6</v>
       </c>
@@ -3107,7 +3115,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="1">
         <v>7</v>
       </c>
@@ -3125,7 +3133,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="32"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="1">
         <v>8</v>
       </c>
@@ -3146,7 +3154,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="32"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="1">
         <v>9</v>
       </c>
@@ -3167,7 +3175,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="32"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="4">
         <v>10</v>
       </c>
@@ -3186,7 +3194,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="32"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="18">
         <v>11</v>
       </c>
@@ -3207,7 +3215,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A91" s="32"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="18">
         <v>12</v>
       </c>
@@ -3231,7 +3239,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="32"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="27">
         <v>13</v>
       </c>
@@ -3253,15 +3261,15 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B94" s="1">
@@ -3281,7 +3289,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="32"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="1">
         <v>3</v>
       </c>
@@ -3300,6 +3308,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A38:A75"/>
+    <mergeCell ref="A80:A92"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A6:F6"/>
@@ -3309,13 +3324,6 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A38:A75"/>
-    <mergeCell ref="A80:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="252">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,6 +1042,11 @@
   <si>
     <t>2019-02-28 10:20 机电部
 王彦辉取出2米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03-12 14:06 机电部
+刘杰剪了一节水管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,12 +1186,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1534,31 +1539,31 @@
       <c r="G1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1578,7 +1583,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1596,7 +1601,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="25">
         <v>3</v>
       </c>
@@ -1620,7 +1625,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="29">
         <v>4</v>
       </c>
@@ -1642,15 +1647,15 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1">
@@ -1670,7 +1675,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1691,7 +1696,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1715,7 +1720,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -1736,7 +1741,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -1754,7 +1759,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -1772,7 +1777,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -1790,7 +1795,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -1808,7 +1813,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1">
         <v>9</v>
       </c>
@@ -1826,7 +1831,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1">
         <v>10</v>
       </c>
@@ -1847,7 +1852,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -1865,7 +1870,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -1883,7 +1888,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -1901,7 +1906,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -1922,7 +1927,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="7">
         <v>15</v>
       </c>
@@ -1940,15 +1945,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1">
@@ -1968,7 +1973,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1986,7 +1991,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -2006,8 +2011,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
@@ -2023,9 +2028,12 @@
       <c r="G26" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="H26" s="8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
@@ -2043,7 +2051,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
@@ -2061,7 +2069,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -2079,7 +2087,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="18">
         <v>8</v>
       </c>
@@ -2103,7 +2111,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="25">
         <v>9</v>
       </c>
@@ -2125,15 +2133,15 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="1">
@@ -2153,7 +2161,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -2171,7 +2179,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="20">
         <v>3</v>
       </c>
@@ -2192,7 +2200,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="23">
         <v>4</v>
       </c>
@@ -2216,15 +2224,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="1">
@@ -2244,7 +2252,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -2262,7 +2270,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -2280,7 +2288,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="1">
         <v>4</v>
       </c>
@@ -2298,7 +2306,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="1">
         <v>5</v>
       </c>
@@ -2316,7 +2324,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="1">
         <v>6</v>
       </c>
@@ -2334,7 +2342,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="1">
         <v>7</v>
       </c>
@@ -2352,7 +2360,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="1">
         <v>8</v>
       </c>
@@ -2370,7 +2378,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="1">
         <v>9</v>
       </c>
@@ -2388,7 +2396,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="1">
         <v>10</v>
       </c>
@@ -2406,7 +2414,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="1">
         <v>11</v>
       </c>
@@ -2424,7 +2432,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="1">
         <v>12</v>
       </c>
@@ -2442,7 +2450,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="1">
         <v>13</v>
       </c>
@@ -2460,7 +2468,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="1">
         <v>14</v>
       </c>
@@ -2478,7 +2486,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="1">
         <v>15</v>
       </c>
@@ -2496,7 +2504,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="1">
         <v>16</v>
       </c>
@@ -2514,7 +2522,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="1">
         <v>17</v>
       </c>
@@ -2532,7 +2540,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -2550,7 +2558,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="10">
         <v>19</v>
       </c>
@@ -2568,7 +2576,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="10">
         <v>20</v>
       </c>
@@ -2586,7 +2594,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="10">
         <v>21</v>
       </c>
@@ -2604,7 +2612,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="10">
         <v>22</v>
       </c>
@@ -2622,7 +2630,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="10">
         <v>23</v>
       </c>
@@ -2643,7 +2651,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="10">
         <v>24</v>
       </c>
@@ -2661,7 +2669,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="10">
         <v>25</v>
       </c>
@@ -2679,7 +2687,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="10">
         <v>26</v>
       </c>
@@ -2697,7 +2705,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="10">
         <v>27</v>
       </c>
@@ -2716,7 +2724,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="10">
         <v>28</v>
       </c>
@@ -2735,7 +2743,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="10">
         <v>29</v>
       </c>
@@ -2753,7 +2761,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="10">
         <v>30</v>
       </c>
@@ -2771,7 +2779,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="10">
         <v>31</v>
       </c>
@@ -2789,7 +2797,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="10">
         <v>32</v>
       </c>
@@ -2807,7 +2815,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="10">
         <v>33</v>
       </c>
@@ -2825,7 +2833,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="10">
         <v>34</v>
       </c>
@@ -2843,7 +2851,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="10">
         <v>35</v>
       </c>
@@ -2864,7 +2872,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="33"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="10">
         <v>36</v>
       </c>
@@ -2891,7 +2899,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="10">
         <v>37</v>
       </c>
@@ -2912,7 +2920,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="10">
         <v>38</v>
       </c>
@@ -2936,15 +2944,15 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="1">
@@ -2967,7 +2975,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -2985,15 +2993,15 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="1">
@@ -3016,7 +3024,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -3037,7 +3045,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="1">
         <v>3</v>
       </c>
@@ -3055,7 +3063,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="33"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="1">
         <v>4</v>
       </c>
@@ -3073,7 +3081,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="33"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="1">
         <v>5</v>
       </c>
@@ -3094,7 +3102,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="33"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="1">
         <v>6</v>
       </c>
@@ -3115,7 +3123,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="1">
         <v>7</v>
       </c>
@@ -3133,7 +3141,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="1">
         <v>8</v>
       </c>
@@ -3154,7 +3162,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="33"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="1">
         <v>9</v>
       </c>
@@ -3175,7 +3183,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="33"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="4">
         <v>10</v>
       </c>
@@ -3194,7 +3202,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="33"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="18">
         <v>11</v>
       </c>
@@ -3215,7 +3223,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="18">
         <v>12</v>
       </c>
@@ -3239,7 +3247,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="27">
         <v>13</v>
       </c>
@@ -3261,15 +3269,15 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B94" s="1">
@@ -3289,7 +3297,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="1">
         <v>3</v>
       </c>
@@ -3308,13 +3316,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A38:A75"/>
-    <mergeCell ref="A80:A92"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A6:F6"/>
@@ -3324,6 +3325,13 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A38:A75"/>
+    <mergeCell ref="A80:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/研发仓库物料清单.xlsx
+++ b/研发仓库物料清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="253">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,6 +1047,11 @@
   <si>
     <t>2019-03-12 14:06 机电部
 刘杰剪了一节水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03-12 15:47 事业部
+牛齐昌取出两个AR眼镜；还剩一个空箱子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,12 +1191,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,31 +1547,31 @@
       <c r="G1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -1583,7 +1591,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1601,7 +1609,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="25">
         <v>3</v>
       </c>
@@ -1625,7 +1633,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="29">
         <v>4</v>
       </c>
@@ -1647,15 +1655,15 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1">
@@ -1675,7 +1683,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1696,7 +1704,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1720,7 +1728,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -1741,7 +1749,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -1759,7 +1767,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -1777,7 +1785,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -1795,7 +1803,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -1813,7 +1821,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1">
         <v>9</v>
       </c>
@@ -1831,7 +1839,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1">
         <v>10</v>
       </c>
@@ -1852,7 +1860,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -1870,7 +1878,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -1888,7 +1896,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -1906,7 +1914,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -1927,7 +1935,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="7">
         <v>15</v>
       </c>
@@ -1945,15 +1953,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1">
@@ -1973,7 +1981,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1991,7 +1999,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -2012,7 +2020,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
@@ -2033,7 +2041,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
@@ -2051,7 +2059,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
@@ -2069,7 +2077,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -2087,7 +2095,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="18">
         <v>8</v>
       </c>
@@ -2111,7 +2119,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="25">
         <v>9</v>
       </c>
@@ -2133,15 +2141,15 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="1">
@@ -2161,7 +2169,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -2179,7 +2187,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="20">
         <v>3</v>
       </c>
@@ -2200,7 +2208,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="23">
         <v>4</v>
       </c>
@@ -2224,15 +2232,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="1">
@@ -2252,7 +2260,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -2270,7 +2278,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -2288,7 +2296,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="1">
         <v>4</v>
       </c>
@@ -2306,7 +2314,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="1">
         <v>5</v>
       </c>
@@ -2324,7 +2332,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="1">
         <v>6</v>
       </c>
@@ -2342,7 +2350,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="32"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="1">
         <v>7</v>
       </c>
@@ -2360,7 +2368,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="32"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="1">
         <v>8</v>
       </c>
@@ -2378,7 +2386,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="1">
         <v>9</v>
       </c>
@@ -2396,7 +2404,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="1">
         <v>10</v>
       </c>
@@ -2414,7 +2422,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="1">
         <v>11</v>
       </c>
@@ -2432,7 +2440,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="32"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="1">
         <v>12</v>
       </c>
@@ -2450,7 +2458,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="32"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="1">
         <v>13</v>
       </c>
@@ -2468,7 +2476,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="1">
         <v>14</v>
       </c>
@@ -2486,7 +2494,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="1">
         <v>15</v>
       </c>
@@ -2504,7 +2512,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="32"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="1">
         <v>16</v>
       </c>
@@ -2522,7 +2530,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="1">
         <v>17</v>
       </c>
@@ -2540,7 +2548,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -2558,7 +2566,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="10">
         <v>19</v>
       </c>
@@ -2576,7 +2584,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="10">
         <v>20</v>
       </c>
@@ -2594,7 +2602,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="10">
         <v>21</v>
       </c>
@@ -2612,7 +2620,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="10">
         <v>22</v>
       </c>
@@ -2630,7 +2638,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="10">
         <v>23</v>
       </c>
@@ -2651,7 +2659,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="10">
         <v>24</v>
       </c>
@@ -2669,7 +2677,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="10">
         <v>25</v>
       </c>
@@ -2687,7 +2695,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="10">
         <v>26</v>
       </c>
@@ -2705,7 +2713,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="10">
         <v>27</v>
       </c>
@@ -2724,7 +2732,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="32"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="10">
         <v>28</v>
       </c>
@@ -2743,7 +2751,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="32"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="10">
         <v>29</v>
       </c>
@@ -2761,7 +2769,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="32"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="10">
         <v>30</v>
       </c>
@@ -2779,7 +2787,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="32"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="10">
         <v>31</v>
       </c>
@@ -2797,7 +2805,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="10">
         <v>32</v>
       </c>
@@ -2815,7 +2823,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="10">
         <v>33</v>
       </c>
@@ -2833,7 +2841,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="10">
         <v>34</v>
       </c>
@@ -2851,7 +2859,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="32"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="10">
         <v>35</v>
       </c>
@@ -2872,7 +2880,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="10">
         <v>36</v>
       </c>
@@ -2899,7 +2907,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="10">
         <v>37</v>
       </c>
@@ -2920,7 +2928,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="10">
         <v>38</v>
       </c>
@@ -2944,15 +2952,15 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="1">
@@ -2975,7 +2983,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="32"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -2993,15 +3001,15 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="1">
@@ -3024,7 +3032,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="32"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -3044,12 +3052,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
+    <row r="82" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="33"/>
       <c r="B82" s="1">
         <v>3</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D82" s="10">
@@ -3058,12 +3066,18 @@
       <c r="E82" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="F82" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="G82" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="H82" s="8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="1">
         <v>4</v>
       </c>
@@ -3081,7 +3095,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="32"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="1">
         <v>5</v>
       </c>
@@ -3102,7 +3116,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="32"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="1">
         <v>6</v>
       </c>
@@ -3123,7 +3137,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="1">
         <v>7</v>
       </c>
@@ -3141,7 +3155,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="32"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="1">
         <v>8</v>
       </c>
@@ -3162,7 +3176,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="32"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="1">
         <v>9</v>
       </c>
@@ -3183,7 +3197,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="32"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="4">
         <v>10</v>
       </c>
@@ -3202,7 +3216,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="32"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="18">
         <v>11</v>
       </c>
@@ -3223,7 +3237,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A91" s="32"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="18">
         <v>12</v>
       </c>
@@ -3247,7 +3261,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="32"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="27">
         <v>13</v>
       </c>
@@ -3269,15 +3283,15 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B94" s="1">
@@ -3297,7 +3311,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="32"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="1">
         <v>3</v>
       </c>
@@ -3316,6 +3330,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A38:A75"/>
+    <mergeCell ref="A80:A92"/>
     <mergeCell ref="H1:Z1"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A6:F6"/>
@@ -3325,13 +3346,6 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A38:A75"/>
-    <mergeCell ref="A80:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
